--- a/testdata/MI_HistoricData_Validation.xlsx
+++ b/testdata/MI_HistoricData_Validation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="File Submissions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -739,9 +739,6 @@
   </si>
   <si>
     <t>699F0</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>ngis_gel_to_bio_sample_sent_lns_20200721_192306.csv</t>
@@ -1856,10 +1853,10 @@
         <v>23019</v>
       </c>
       <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
         <v>239</v>
-      </c>
-      <c r="G4" t="s">
-        <v>240</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1868,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1876,16 +1873,16 @@
         <v>23018</v>
       </c>
       <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
         <v>242</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>243</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>244</v>
-      </c>
-      <c r="G5" t="s">
-        <v>245</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1894,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -2142,34 +2139,34 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
         <v>247</v>
       </c>
-      <c r="C4" t="s">
-        <v>248</v>
-      </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4">
         <v>2141266866</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" t="s">
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
@@ -2181,25 +2178,25 @@
         <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P4" s="1">
         <v>44029</v>
       </c>
       <c r="Q4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V4" t="s">
         <v>42</v>
@@ -2208,7 +2205,7 @@
         <v>43</v>
       </c>
       <c r="X4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y4" t="s">
         <v>44</v>
@@ -2219,34 +2216,34 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
         <v>247</v>
       </c>
-      <c r="C5" t="s">
-        <v>248</v>
-      </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5">
         <v>2076569228</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
         <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K5" t="s">
         <v>41</v>
@@ -2258,25 +2255,25 @@
         <v>41</v>
       </c>
       <c r="N5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="P5" s="1">
         <v>44029</v>
       </c>
       <c r="Q5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V5" t="s">
         <v>42</v>
@@ -2285,7 +2282,7 @@
         <v>43</v>
       </c>
       <c r="X5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y5" t="s">
         <v>44</v>
@@ -2564,19 +2561,19 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" t="s">
         <v>299</v>
-      </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" t="s">
-        <v>300</v>
       </c>
       <c r="G4">
         <v>2141266866</v>
@@ -2591,31 +2588,31 @@
         <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M4" t="s">
         <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>286</v>
+      </c>
+      <c r="R4" t="s">
         <v>302</v>
       </c>
-      <c r="Q4" t="s">
-        <v>287</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>303</v>
-      </c>
-      <c r="S4" t="s">
-        <v>304</v>
       </c>
       <c r="U4" t="s">
         <v>42</v>
@@ -2642,24 +2639,24 @@
         <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5">
         <v>2076569228</v>
@@ -2674,31 +2671,31 @@
         <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M5" t="s">
         <v>40</v>
       </c>
       <c r="N5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P5" t="s">
         <v>63</v>
       </c>
       <c r="Q5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R5" t="s">
+        <v>305</v>
+      </c>
+      <c r="S5" t="s">
         <v>306</v>
-      </c>
-      <c r="S5" t="s">
-        <v>307</v>
       </c>
       <c r="U5" t="s">
         <v>42</v>
@@ -2725,7 +2722,7 @@
         <v>43</v>
       </c>
       <c r="AD5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2934,19 +2931,19 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
         <v>247</v>
       </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
       <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
         <v>285</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>286</v>
-      </c>
-      <c r="E4" t="s">
-        <v>287</v>
       </c>
       <c r="F4">
         <v>2141266866</v>
@@ -2961,34 +2958,34 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K4" t="s">
         <v>85</v>
       </c>
       <c r="L4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M4" t="s">
         <v>289</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>290</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>291</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>292</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>246</v>
+      </c>
+      <c r="R4" t="s">
+        <v>287</v>
+      </c>
+      <c r="S4" t="s">
         <v>293</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>247</v>
-      </c>
-      <c r="R4" t="s">
-        <v>288</v>
-      </c>
-      <c r="S4" t="s">
-        <v>294</v>
       </c>
       <c r="T4">
         <v>2141266866</v>
@@ -2996,19 +2993,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
         <v>247</v>
       </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5">
         <v>2076569228</v>
@@ -3023,34 +3020,34 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
       </c>
       <c r="L5" t="s">
+        <v>295</v>
+      </c>
+      <c r="M5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N5" t="s">
         <v>296</v>
       </c>
-      <c r="M5" t="s">
-        <v>290</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P5" t="s">
         <v>297</v>
       </c>
-      <c r="O5" t="s">
-        <v>292</v>
-      </c>
-      <c r="P5" t="s">
-        <v>298</v>
-      </c>
       <c r="Q5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="T5">
         <v>2076569228</v>
@@ -3181,7 +3178,7 @@
         <v>2141266866</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4">
         <v>45.01</v>
@@ -3196,19 +3193,19 @@
         <v>105</v>
       </c>
       <c r="G4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" t="s">
         <v>280</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>281</v>
-      </c>
-      <c r="I4" t="s">
-        <v>282</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3216,7 +3213,7 @@
         <v>2076569228</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5">
         <v>45.01</v>
@@ -3231,19 +3228,19 @@
         <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I5" t="s">
         <v>283</v>
-      </c>
-      <c r="I5" t="s">
-        <v>284</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3255,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,22 +3632,22 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
         <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
       </c>
       <c r="C4">
         <v>2141266866</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4">
         <v>105</v>
@@ -3659,16 +3656,16 @@
         <v>45.01</v>
       </c>
       <c r="I4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L4" t="s">
         <v>252</v>
-      </c>
-      <c r="L4" t="s">
-        <v>253</v>
       </c>
       <c r="M4" t="s">
         <v>146</v>
@@ -3680,10 +3677,10 @@
         <v>1145753794</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R4" t="s">
         <v>41</v>
@@ -3707,40 +3704,40 @@
         <v>44</v>
       </c>
       <c r="AM4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN4" t="s">
         <v>255</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>256</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>257</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>258</v>
       </c>
       <c r="AQ4" t="s">
         <v>42</v>
       </c>
       <c r="AR4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU4" t="s">
         <v>260</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>261</v>
       </c>
       <c r="AV4" t="s">
         <v>148</v>
       </c>
       <c r="AX4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AY4" t="s">
         <v>262</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>263</v>
       </c>
       <c r="AZ4" t="s">
         <v>12</v>
@@ -3748,22 +3745,22 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
         <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
       </c>
       <c r="C5">
         <v>2076569228</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G5">
         <v>105</v>
@@ -3772,17 +3769,11 @@
         <v>45.01</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" t="s">
-        <v>238</v>
-      </c>
       <c r="M5" t="s">
         <v>146</v>
       </c>
@@ -3793,10 +3784,10 @@
         <v>1145753794</v>
       </c>
       <c r="P5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R5" t="s">
         <v>41</v>
@@ -3820,13 +3811,13 @@
         <v>44</v>
       </c>
       <c r="AM5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN5" t="s">
         <v>255</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>256</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>257</v>
       </c>
       <c r="AP5" t="s">
         <v>153</v>
@@ -3835,25 +3826,25 @@
         <v>42</v>
       </c>
       <c r="AR5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU5" t="s">
         <v>267</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>268</v>
       </c>
       <c r="AV5" t="s">
         <v>148</v>
       </c>
       <c r="AX5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY5" t="s">
         <v>269</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>270</v>
       </c>
       <c r="AZ5" t="s">
         <v>12</v>
@@ -4026,7 +4017,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1">
         <v>44029</v>
@@ -4038,37 +4029,37 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
         <v>271</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>272</v>
-      </c>
-      <c r="G4" t="s">
-        <v>273</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" t="s">
         <v>274</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>275</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>276</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>277</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>278</v>
       </c>
-      <c r="N4" t="s">
-        <v>279</v>
-      </c>
       <c r="O4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P4" t="b">
         <v>1</v>
